--- a/data/pca/factorExposure/factorExposure_2012-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002663596659552509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001822401384719244</v>
+      </c>
+      <c r="C2">
+        <v>0.02923818489613338</v>
+      </c>
+      <c r="D2">
+        <v>-0.003921714618239729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003023228301263819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006667863612843729</v>
+      </c>
+      <c r="C4">
+        <v>0.08385603226506701</v>
+      </c>
+      <c r="D4">
+        <v>-0.06554985349163944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005488626671644621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01487613732841484</v>
+      </c>
+      <c r="C6">
+        <v>0.1184253994999267</v>
+      </c>
+      <c r="D6">
+        <v>-0.0204498611609433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006888228940765292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005035253237764557</v>
+      </c>
+      <c r="C7">
+        <v>0.05908678335855263</v>
+      </c>
+      <c r="D7">
+        <v>-0.03087653608790433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007675817109447155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005057402931281558</v>
+      </c>
+      <c r="C8">
+        <v>0.03587765971761179</v>
+      </c>
+      <c r="D8">
+        <v>-0.03884673087152555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006431458653053092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005605015836242297</v>
+      </c>
+      <c r="C9">
+        <v>0.07238974200039162</v>
+      </c>
+      <c r="D9">
+        <v>-0.07170650365299844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0008072878349154993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002137694205263413</v>
+      </c>
+      <c r="C10">
+        <v>0.05230886587944624</v>
+      </c>
+      <c r="D10">
+        <v>0.1858382056121186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0006418955477109688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00620335216341357</v>
+      </c>
+      <c r="C11">
+        <v>0.08080390251673067</v>
+      </c>
+      <c r="D11">
+        <v>-0.06640787969369855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006697615125614355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004559636421884432</v>
+      </c>
+      <c r="C12">
+        <v>0.06499256216195402</v>
+      </c>
+      <c r="D12">
+        <v>-0.05040489142138466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002387737152472007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009291890811114778</v>
+      </c>
+      <c r="C13">
+        <v>0.07113693636860373</v>
+      </c>
+      <c r="D13">
+        <v>-0.05998451665890644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001780668271212187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006949726563370026</v>
+      </c>
+      <c r="C14">
+        <v>0.04335744205749912</v>
+      </c>
+      <c r="D14">
+        <v>-0.01107913535629105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001717897883300441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006091184930004158</v>
+      </c>
+      <c r="C15">
+        <v>0.04091848775114481</v>
+      </c>
+      <c r="D15">
+        <v>-0.02711758280505603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0001834590506518085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005452329989879902</v>
+      </c>
+      <c r="C16">
+        <v>0.0650171787220024</v>
+      </c>
+      <c r="D16">
+        <v>-0.05865759062764242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002700982016141674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008880135912987253</v>
+      </c>
+      <c r="C20">
+        <v>0.06451662641146158</v>
+      </c>
+      <c r="D20">
+        <v>-0.05000896412798524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005570373854105454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.0094149571902676</v>
+      </c>
+      <c r="C21">
+        <v>0.02036193710632351</v>
+      </c>
+      <c r="D21">
+        <v>-0.0399333689785959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02027472103401166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007342207584352435</v>
+      </c>
+      <c r="C22">
+        <v>0.0880120390720094</v>
+      </c>
+      <c r="D22">
+        <v>-0.1262141421619896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0199375015429927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007049008805283793</v>
+      </c>
+      <c r="C23">
+        <v>0.08841937938385197</v>
+      </c>
+      <c r="D23">
+        <v>-0.1273328131677833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001133220644249442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006169724840888468</v>
+      </c>
+      <c r="C24">
+        <v>0.07747051600160464</v>
+      </c>
+      <c r="D24">
+        <v>-0.06752915538033036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002832663067383078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00364589602122354</v>
+      </c>
+      <c r="C25">
+        <v>0.07865816020873229</v>
+      </c>
+      <c r="D25">
+        <v>-0.06518909731715897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001279866958856028</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003674399847980278</v>
+      </c>
+      <c r="C26">
+        <v>0.04002011259344097</v>
+      </c>
+      <c r="D26">
+        <v>-0.02066132789118483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006826135143332974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002190058559363969</v>
+      </c>
+      <c r="C28">
+        <v>0.1026717026397052</v>
+      </c>
+      <c r="D28">
+        <v>0.3267594002566355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004124426211261383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00349648716298166</v>
+      </c>
+      <c r="C29">
+        <v>0.04736655640104326</v>
+      </c>
+      <c r="D29">
+        <v>-0.01064678088014445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002819439425900878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009627109226207773</v>
+      </c>
+      <c r="C30">
+        <v>0.1416232505703809</v>
+      </c>
+      <c r="D30">
+        <v>-0.1076225915410138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001852734931214559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006226482494737604</v>
+      </c>
+      <c r="C31">
+        <v>0.04424280407193731</v>
+      </c>
+      <c r="D31">
+        <v>-0.03007599587176799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002178790551950407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004410885650531168</v>
+      </c>
+      <c r="C32">
+        <v>0.0388830056048781</v>
+      </c>
+      <c r="D32">
+        <v>-0.01889477303337722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0002230171069490479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008958529775016112</v>
+      </c>
+      <c r="C33">
+        <v>0.09066365547971868</v>
+      </c>
+      <c r="D33">
+        <v>-0.06268330980105097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0009442495702860228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004633169045904073</v>
+      </c>
+      <c r="C34">
+        <v>0.05796754685302611</v>
+      </c>
+      <c r="D34">
+        <v>-0.05827699932385581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001963658388580435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005106600179587999</v>
+      </c>
+      <c r="C35">
+        <v>0.04067443933007018</v>
+      </c>
+      <c r="D35">
+        <v>-0.01386244065857685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004553467687786743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001450644770662176</v>
+      </c>
+      <c r="C36">
+        <v>0.02550538480660496</v>
+      </c>
+      <c r="D36">
+        <v>-0.0212679291228072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002500145421998442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008839892596799912</v>
+      </c>
+      <c r="C38">
+        <v>0.04103764295679767</v>
+      </c>
+      <c r="D38">
+        <v>-0.01385752811618912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01134621348383036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001603575269659614</v>
+      </c>
+      <c r="C39">
+        <v>0.1127866036069745</v>
+      </c>
+      <c r="D39">
+        <v>-0.08249655260930511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004019489638610889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002872372559501425</v>
+      </c>
+      <c r="C40">
+        <v>0.09139755146671602</v>
+      </c>
+      <c r="D40">
+        <v>-0.01730168180721124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002430700253345613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007587059504869017</v>
+      </c>
+      <c r="C41">
+        <v>0.04106172439958056</v>
+      </c>
+      <c r="D41">
+        <v>-0.04111910113865008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001885783901710804</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004079487065041109</v>
+      </c>
+      <c r="C43">
+        <v>0.05422203524770314</v>
+      </c>
+      <c r="D43">
+        <v>-0.0270154413748906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00780053877954242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002175271634038564</v>
+      </c>
+      <c r="C44">
+        <v>0.105167068025291</v>
+      </c>
+      <c r="D44">
+        <v>-0.06687027560772985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001563850837767184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001333041544133486</v>
+      </c>
+      <c r="C46">
+        <v>0.03287731457100616</v>
+      </c>
+      <c r="D46">
+        <v>-0.03271459200077999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001969073228778515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002760633018844532</v>
+      </c>
+      <c r="C47">
+        <v>0.03500232525920096</v>
+      </c>
+      <c r="D47">
+        <v>-0.02159494074307215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004591757788749676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007564524829019163</v>
+      </c>
+      <c r="C48">
+        <v>0.0335576560858711</v>
+      </c>
+      <c r="D48">
+        <v>-0.02875765946093964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005113375676812772</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0180159979874531</v>
+      </c>
+      <c r="C49">
+        <v>0.18607653259561</v>
+      </c>
+      <c r="D49">
+        <v>-0.01067565487547161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002262452475299125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004142726360109912</v>
+      </c>
+      <c r="C50">
+        <v>0.04262083221881505</v>
+      </c>
+      <c r="D50">
+        <v>-0.03836392741810405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-8.415959616226161e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004013715716818388</v>
+      </c>
+      <c r="C51">
+        <v>0.02660320941768837</v>
+      </c>
+      <c r="D51">
+        <v>-0.02546738950398372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008486295566770719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02173355547462903</v>
+      </c>
+      <c r="C53">
+        <v>0.1716967904773659</v>
+      </c>
+      <c r="D53">
+        <v>-0.01915132088114089</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003332095464445087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009549474991312031</v>
+      </c>
+      <c r="C54">
+        <v>0.05707509693465986</v>
+      </c>
+      <c r="D54">
+        <v>-0.03953054523557688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001854134813452846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01018380042314576</v>
+      </c>
+      <c r="C55">
+        <v>0.108709822222663</v>
+      </c>
+      <c r="D55">
+        <v>-0.03477135616737624</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009069847275947061</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02159407264163967</v>
+      </c>
+      <c r="C56">
+        <v>0.1747429182614259</v>
+      </c>
+      <c r="D56">
+        <v>-0.01360056654678023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0006431874379717265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01621983298454618</v>
+      </c>
+      <c r="C58">
+        <v>0.1059788087208498</v>
+      </c>
+      <c r="D58">
+        <v>-0.06165568588076623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002575616904793571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009671049236887976</v>
+      </c>
+      <c r="C59">
+        <v>0.1677766229362276</v>
+      </c>
+      <c r="D59">
+        <v>0.3470790071700718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008584169908808593</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02668031433371983</v>
+      </c>
+      <c r="C60">
+        <v>0.2237183180893504</v>
+      </c>
+      <c r="D60">
+        <v>-0.01672247611344094</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01015939722671368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001961203112883864</v>
+      </c>
+      <c r="C61">
+        <v>0.0941471494721704</v>
+      </c>
+      <c r="D61">
+        <v>-0.05886972700592376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.149820090486893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1531549718885782</v>
+      </c>
+      <c r="C62">
+        <v>0.1014051530616997</v>
+      </c>
+      <c r="D62">
+        <v>-0.01766352801939669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.000909919189111573</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006396966264712905</v>
+      </c>
+      <c r="C63">
+        <v>0.05397638259752573</v>
+      </c>
+      <c r="D63">
+        <v>-0.03299232996699849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01045597259940196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01709650712209668</v>
+      </c>
+      <c r="C64">
+        <v>0.106534389488104</v>
+      </c>
+      <c r="D64">
+        <v>-0.05247903655709666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008502127214382931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01794088423281433</v>
+      </c>
+      <c r="C65">
+        <v>0.1203700055064253</v>
+      </c>
+      <c r="D65">
+        <v>-0.02325493518605896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001272487532062225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01326386530846934</v>
+      </c>
+      <c r="C66">
+        <v>0.1607909648725006</v>
+      </c>
+      <c r="D66">
+        <v>-0.1135350119653864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005777685217939582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01535832941787032</v>
+      </c>
+      <c r="C67">
+        <v>0.0734266792651002</v>
+      </c>
+      <c r="D67">
+        <v>-0.02568965652876387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004540146987579582</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0001641518019521938</v>
+      </c>
+      <c r="C68">
+        <v>0.08425969355511759</v>
+      </c>
+      <c r="D68">
+        <v>0.2589918162099277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0003153308925027035</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006203996415030034</v>
+      </c>
+      <c r="C69">
+        <v>0.05191915277765338</v>
+      </c>
+      <c r="D69">
+        <v>-0.03718699868741349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.00146821381614562</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002601282633899288</v>
+      </c>
+      <c r="C70">
+        <v>0.008598565973680658</v>
+      </c>
+      <c r="D70">
+        <v>0.001797802630275007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0005935408642834185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004910406400103073</v>
+      </c>
+      <c r="C71">
+        <v>0.08857046052284528</v>
+      </c>
+      <c r="D71">
+        <v>0.3017819727828748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00533237228050314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01865774834097696</v>
+      </c>
+      <c r="C72">
+        <v>0.1588749094106166</v>
+      </c>
+      <c r="D72">
+        <v>-0.007407575955055212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.00964787015382617</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03163031430174915</v>
+      </c>
+      <c r="C73">
+        <v>0.2813752444105647</v>
+      </c>
+      <c r="D73">
+        <v>-0.05543515332030046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005366358936106695</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002109085772772513</v>
+      </c>
+      <c r="C74">
+        <v>0.1032154997908337</v>
+      </c>
+      <c r="D74">
+        <v>-0.03167653501599451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0005469745191097995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01194541424715298</v>
+      </c>
+      <c r="C75">
+        <v>0.1203197492516227</v>
+      </c>
+      <c r="D75">
+        <v>-0.02779147757309815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01098752828375987</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02209826756681528</v>
+      </c>
+      <c r="C76">
+        <v>0.1455801150624459</v>
+      </c>
+      <c r="D76">
+        <v>-0.05610153949051383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006616062147140197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02151310943580431</v>
+      </c>
+      <c r="C77">
+        <v>0.1103040860444301</v>
+      </c>
+      <c r="D77">
+        <v>-0.04517250834343877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004266984721223128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01443179016803966</v>
+      </c>
+      <c r="C78">
+        <v>0.09941746161696678</v>
+      </c>
+      <c r="D78">
+        <v>-0.08059317027666615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02751490890876231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03933344099484749</v>
+      </c>
+      <c r="C79">
+        <v>0.1572783338095723</v>
+      </c>
+      <c r="D79">
+        <v>-0.02985139413722892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006332782635042752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009466330138856498</v>
+      </c>
+      <c r="C80">
+        <v>0.03978698820793748</v>
+      </c>
+      <c r="D80">
+        <v>-0.03233536507736093</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005392477425508929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01659148007241034</v>
+      </c>
+      <c r="C81">
+        <v>0.1308816664913457</v>
+      </c>
+      <c r="D81">
+        <v>-0.03723341729817558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007764223163110671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01972650253342348</v>
+      </c>
+      <c r="C82">
+        <v>0.1365485250777905</v>
+      </c>
+      <c r="D82">
+        <v>-0.03606247120118154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00331644239828006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0120690350130741</v>
+      </c>
+      <c r="C83">
+        <v>0.06433987884640088</v>
+      </c>
+      <c r="D83">
+        <v>-0.04431838312115996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004241741798007587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006478978085094545</v>
+      </c>
+      <c r="C84">
+        <v>0.03453638967692719</v>
+      </c>
+      <c r="D84">
+        <v>-0.01380537409240667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01899479534614644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02914253232807704</v>
+      </c>
+      <c r="C85">
+        <v>0.1233746591746293</v>
+      </c>
+      <c r="D85">
+        <v>-0.03961158765279672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002701542614151332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003723429820927208</v>
+      </c>
+      <c r="C86">
+        <v>0.05077743188925332</v>
+      </c>
+      <c r="D86">
+        <v>-0.02463523172962028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001841465971247166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01240474661515644</v>
+      </c>
+      <c r="C87">
+        <v>0.1291057355101304</v>
+      </c>
+      <c r="D87">
+        <v>-0.07205556471393081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008580054191644322</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002912428622531396</v>
+      </c>
+      <c r="C88">
+        <v>0.0636633217730751</v>
+      </c>
+      <c r="D88">
+        <v>-0.02893036631388325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01140418151049041</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002843101798113794</v>
+      </c>
+      <c r="C89">
+        <v>0.1345078169512345</v>
+      </c>
+      <c r="D89">
+        <v>0.3182694410341357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002033446300346406</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00570931548854091</v>
+      </c>
+      <c r="C90">
+        <v>0.1157674894089463</v>
+      </c>
+      <c r="D90">
+        <v>0.3130990775691899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002570740127960729</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01130660796723047</v>
+      </c>
+      <c r="C91">
+        <v>0.09893417400284929</v>
+      </c>
+      <c r="D91">
+        <v>-0.02922745958813118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005523604226798617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-6.666049613526758e-06</v>
+      </c>
+      <c r="C92">
+        <v>0.1283854680783763</v>
+      </c>
+      <c r="D92">
+        <v>0.3246801517014753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00149691362633988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003564118100898484</v>
+      </c>
+      <c r="C93">
+        <v>0.1036075755368538</v>
+      </c>
+      <c r="D93">
+        <v>0.3009347406095632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01002751318206293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02235728611425713</v>
+      </c>
+      <c r="C94">
+        <v>0.1397832428098527</v>
+      </c>
+      <c r="D94">
+        <v>-0.05575859208378165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006732810913069996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01618213803584708</v>
+      </c>
+      <c r="C95">
+        <v>0.1207083470480929</v>
+      </c>
+      <c r="D95">
+        <v>-0.06846519370519402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01724775840500761</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03760898881883462</v>
+      </c>
+      <c r="C97">
+        <v>0.2247330865986719</v>
+      </c>
+      <c r="D97">
+        <v>0.0003832545158935313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01204546709175657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03977391098737359</v>
+      </c>
+      <c r="C98">
+        <v>0.2608891911724538</v>
+      </c>
+      <c r="D98">
+        <v>-0.03068053229357916</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865289659227261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9804516248198241</v>
+      </c>
+      <c r="C99">
+        <v>-0.12260370858326</v>
+      </c>
+      <c r="D99">
+        <v>0.02468415852925827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004365380479692204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00348802715657306</v>
+      </c>
+      <c r="C101">
+        <v>0.04754689385681141</v>
+      </c>
+      <c r="D101">
+        <v>-0.01131075493203406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
